--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Enemy" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,9 +15,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,11 +75,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,6 +158,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,12 +369,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -366,27 +404,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,22 +11,62 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +115,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -84,14 +192,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -158,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -193,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,18 +475,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -391,12 +531,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -405,12 +545,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,50 @@
   </si>
   <si>
     <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiShoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,74 +151,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -192,14 +160,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -266,6 +234,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,20 +445,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,6 +492,51 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -531,12 +547,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -545,12 +561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Block" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +95,94 @@
   </si>
   <si>
     <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two guns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +231,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,14 +308,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -234,7 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,7 +416,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,98 +591,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -546,27 +1034,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,18 +171,14 @@
   </si>
   <si>
     <t>Steel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,74 +227,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,14 +236,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -382,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -416,6 +345,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,14 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -607,7 +537,7 @@
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -674,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -706,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -738,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -770,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -802,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -834,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -866,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -901,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -936,7 +866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -976,19 +906,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -999,32 +929,48 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>39</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1035,12 +981,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060" activeTab="1"/>
@@ -162,23 +162,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +227,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -236,14 +304,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -310,7 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,7 +412,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,14 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -537,7 +603,7 @@
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -604,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -636,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -668,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -700,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -732,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -764,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -796,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -831,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -866,7 +932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -906,19 +972,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -929,7 +995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -940,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -951,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -962,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -981,12 +1047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,22 @@
   </si>
   <si>
     <t>Barrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyPlain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,12 +211,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5BB81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,8 +239,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -294,6 +319,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFE5BB81"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -588,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,10 +628,14 @@
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,16 +661,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -664,13 +699,16 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -696,13 +734,16 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -728,13 +769,16 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -760,13 +804,16 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -792,13 +839,16 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -824,13 +874,16 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -856,13 +909,16 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -888,16 +944,19 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -923,16 +982,19 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -958,10 +1020,40 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,18 +183,14 @@
   </si>
   <si>
     <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE5BB81"/>
+        <fgColor rgb="FFFFCC00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,73 +249,9 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFF0033"/>
       <color rgb="FFE5BB81"/>
     </mruColors>
   </colors>
@@ -332,14 +264,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -406,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -440,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,14 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -635,7 +569,7 @@
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -708,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -743,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -778,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -813,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -848,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -883,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -918,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -956,7 +890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -994,7 +928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1046,8 +980,8 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
-        <v>42</v>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1064,19 +998,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1087,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1098,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1109,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1120,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1139,12 +1073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,14 +183,38 @@
   </si>
   <si>
     <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngleSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyShootFast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,7 +240,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FFB38F00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F00B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DB300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,11 +271,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -249,7 +291,76 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
+      <color rgb="FF7DB300"/>
+      <color rgb="FF8F00B3"/>
+      <color rgb="FFB38F00"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFFF0033"/>
       <color rgb="FFE5BB81"/>
@@ -264,14 +375,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -338,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,27 +658,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,19 +705,28 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -633,16 +752,25 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -668,16 +796,25 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -703,16 +840,25 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -738,16 +884,25 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -776,13 +931,22 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -808,16 +972,25 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -843,16 +1016,25 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -878,19 +1060,28 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -919,16 +1110,25 @@
         <v>4</v>
       </c>
       <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -954,16 +1154,25 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -981,14 +1190,65 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>50</v>
       </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>150</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -998,19 +1258,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1032,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1043,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1073,12 +1333,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1217,7 +1217,7 @@
         <v>43</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>70</v>
@@ -1226,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1249,6 +1249,36 @@
         <v>47</v>
       </c>
       <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15960" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="8985" windowHeight="2910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
     <sheet name="Block" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bonus" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,14 +207,86 @@
   </si>
   <si>
     <t>EnemyShootFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastshoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multishoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,72 +363,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF7DB300"/>
       <color rgb="FF8F00B3"/>
@@ -375,14 +381,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -449,6 +455,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -483,6 +490,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,14 +666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -679,7 +687,7 @@
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -770,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -814,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -858,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -902,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -946,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -990,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1288,19 +1296,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1363,13 +1371,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="8985" windowHeight="2910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="8985" windowHeight="2910"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,14 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Breakable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Two</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,14 +267,30 @@
   </si>
   <si>
     <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusThree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusFour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusFast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusBig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +303,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -343,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +369,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -363,6 +379,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF7DB300"/>
       <color rgb="FF8F00B3"/>
@@ -381,14 +463,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -455,7 +537,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -490,7 +571,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,14 +746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -687,54 +767,54 @@
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -778,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -822,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -866,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -910,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -954,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -998,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1180,13 +1260,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -1216,13 +1296,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -1252,13 +1332,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>50</v>
@@ -1296,65 +1376,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>36</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1371,99 +1451,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="8985" windowHeight="2910"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="8985" windowHeight="2910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,14 +283,18 @@
   </si>
   <si>
     <t>BonusBig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusLife</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,72 +383,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF7DB300"/>
       <color rgb="FF8F00B3"/>
@@ -463,14 +401,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -537,6 +475,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -571,6 +510,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,14 +686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
@@ -767,7 +707,7 @@
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -814,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -858,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -902,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -946,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -990,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1078,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1296,7 +1236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1332,7 +1272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1376,19 +1316,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1410,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1421,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1432,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1451,19 +1391,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1479,7 +1419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1487,7 +1427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1495,12 +1435,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1508,32 +1448,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1541,22 +1484,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>60</v>
       </c>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>multishoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>solid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +283,18 @@
   </si>
   <si>
     <t>BonusLife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusShootfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusBomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,7 +1403,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1408,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1416,15 +1424,15 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1432,7 +1440,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1445,20 +1453,23 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1470,38 +1481,39 @@
       <c r="A10" t="s">
         <v>53</v>
       </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>54</v>
       </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="8985" windowHeight="2910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="5895" windowHeight="2430" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
     <sheet name="Block" sheetId="2" r:id="rId2"/>
     <sheet name="Bonus" sheetId="3" r:id="rId3"/>
+    <sheet name="Level" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +296,46 @@
   </si>
   <si>
     <t>BonusBomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroy the boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroy all enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eradicate the alien infestation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive for 30 minutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive for 3 minutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reach the target zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroy 30 enemies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +361,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -368,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +431,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1521,4 +1573,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="51.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/doc/data.xlsx
+++ b/trunk/doc/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="5895" windowHeight="2430" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="5895" windowHeight="2430"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>solid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>freeze</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +332,22 @@
   </si>
   <si>
     <t>Destroy 30 enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyBig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +414,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009F81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -417,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +460,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,6 +474,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF009F81"/>
       <color rgb="FF7DB300"/>
       <color rgb="FF8F00B3"/>
       <color rgb="FFB38F00"/>
@@ -747,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,7 +846,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
@@ -859,7 +890,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -903,7 +934,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -1217,7 +1248,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1281,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="I16">
         <v>60</v>
@@ -1317,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
         <v>45</v>
@@ -1353,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
         <v>60</v>
@@ -1366,6 +1397,42 @@
       </c>
       <c r="L18">
         <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>1.5</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1447,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,7 +1467,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B2">
@@ -1411,7 +1478,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B3">
@@ -1422,7 +1489,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B4">
@@ -1433,7 +1500,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B5">
@@ -1452,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,109 +1530,112 @@
     <col min="2" max="2" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1591,13 +1661,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1605,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1613,10 +1683,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1624,10 +1694,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1635,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1643,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
